--- a/Project_docs/Tabela analizy ryzyka - v.2022.06.11.xlsx
+++ b/Project_docs/Tabela analizy ryzyka - v.2022.06.11.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/Project_docs/Tabela analizy ryzyka - v.2022.06.11.xlsx
+++ b/Project_docs/Tabela analizy ryzyka - v.2022.06.11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Nr</t>
   </si>
@@ -57,13 +57,25 @@
     <t>Niewykonanie projektu na czas</t>
   </si>
   <si>
-    <t>Ustawienie przypomnienia 4 dni przed ostatecznym terminem</t>
-  </si>
-  <si>
     <t>Znalezione błędy nie zostaną usunięte na czas</t>
   </si>
   <si>
-    <t>Ustawienie przypomnienia 5 dni przed ostatecznym terminem</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Brak ostatecznych kryteriów akceptacji systemu.</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Brak definicji konfiguracji systemu do testów.</t>
+  </si>
+  <si>
+    <t>Reguralne kontrolowanie harmonogramu</t>
+  </si>
+  <si>
+    <t>Rozpoczęcie usuwania błędów najszybciej jak to możliwe</t>
   </si>
 </sst>
 </file>
@@ -161,13 +173,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +488,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -550,11 +562,11 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="47.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="31.5">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
@@ -567,8 +579,8 @@
         <f>C4*D4</f>
         <v>36</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>12</v>
@@ -582,11 +594,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="47.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -595,10 +607,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
+        <f>C5*D5</f>
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -612,7 +625,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -626,27 +639,49 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="7" spans="1:9" ht="31.5">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <f>C7*D7</f>
+        <v>7</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="1:9" ht="31.5">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <f>C8*D8</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
